--- a/biology/Zoologie/Eupithecia_selinata/Eupithecia_selinata.xlsx
+++ b/biology/Zoologie/Eupithecia_selinata/Eupithecia_selinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupithécie du persil
-Eupithecia selinata, l’Eupithécie du persil[1], est une espèce européenne et asiatique de lépidoptères (papillons) de la famille des Geometridae[2].
+Eupithecia selinata, l’Eupithécie du persil, est une espèce européenne et asiatique de lépidoptères (papillons) de la famille des Geometridae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago a une envergure de 19 à 22 mm. Les ailes antérieures et postérieures sont brun grisâtre foncé[3].
-Il y a une génération par an avec des imagos en vol de fin mai à août[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago a une envergure de 19 à 22 mm. Les ailes antérieures et postérieures sont brun grisâtre foncé.
+Il y a une génération par an avec des imagos en vol de fin mai à août.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve Eupithecia selinata du Japon à travers l'oblast de l'Amour, la Sibérie, l'Oural, le Caucase et la Russie[5] jusqu'en Europe occidentale et du sud de la Fennoscandie aux Alpes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve Eupithecia selinata du Japon à travers l'oblast de l'Amour, la Sibérie, l'Oural, le Caucase et la Russie jusqu'en Europe occidentale et du sud de la Fennoscandie aux Alpes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille consomme les plantes des espèces Aegopodium podagraria, Angelica sylvestris, Anthriscus sylvestris, Bupleurum falcatum, Chaerophyllum temulum, Heracleum sphondylium, Laserpitium latifolium, Peucedanum cervaria, Peucedanum oreoselinum, Peucedanum palustre, Pimpinella major, Pimpinella saxifraga, Selinum carvifolia[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille consomme les plantes des espèces Aegopodium podagraria, Angelica sylvestris, Anthriscus sylvestris, Bupleurum falcatum, Chaerophyllum temulum, Heracleum sphondylium, Laserpitium latifolium, Peucedanum cervaria, Peucedanum oreoselinum, Peucedanum palustre, Pimpinella major, Pimpinella saxifraga, Selinum carvifolia.
 </t>
         </is>
       </c>
